--- a/NatmiData/natmiOut_TPM/YoungD2/LR-pairs_lrc2p/Plau-Lrp2.xlsx
+++ b/NatmiData/natmiOut_TPM/YoungD2/LR-pairs_lrc2p/Plau-Lrp2.xlsx
@@ -543,28 +543,28 @@
         <v>1</v>
       </c>
       <c r="G2">
-        <v>11.46594833333333</v>
+        <v>46.00640566666667</v>
       </c>
       <c r="H2">
-        <v>34.397845</v>
+        <v>138.019217</v>
       </c>
       <c r="I2">
-        <v>0.0374233929424224</v>
+        <v>0.1268639696980132</v>
       </c>
       <c r="J2">
-        <v>0.0374233929424224</v>
+        <v>0.1268639696980132</v>
       </c>
       <c r="K2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L2">
-        <v>0.3333333333333333</v>
+        <v>1</v>
       </c>
       <c r="M2">
-        <v>0.01049366666666667</v>
+        <v>0.110028</v>
       </c>
       <c r="N2">
-        <v>0.031481</v>
+        <v>0.330084</v>
       </c>
       <c r="O2">
         <v>1</v>
@@ -573,16 +573,16 @@
         <v>1</v>
       </c>
       <c r="Q2">
-        <v>0.1203198398272222</v>
+        <v>5.061992802692</v>
       </c>
       <c r="R2">
-        <v>1.082878558445</v>
+        <v>45.557935224228</v>
       </c>
       <c r="S2">
-        <v>0.0374233929424224</v>
+        <v>0.1268639696980132</v>
       </c>
       <c r="T2">
-        <v>0.0374233929424224</v>
+        <v>0.1268639696980132</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -611,22 +611,22 @@
         <v>341.735291</v>
       </c>
       <c r="I3">
-        <v>0.3717934677996853</v>
+        <v>0.3141149221428037</v>
       </c>
       <c r="J3">
-        <v>0.3717934677996854</v>
+        <v>0.3141149221428037</v>
       </c>
       <c r="K3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L3">
-        <v>0.3333333333333333</v>
+        <v>1</v>
       </c>
       <c r="M3">
-        <v>0.01049366666666667</v>
+        <v>0.110028</v>
       </c>
       <c r="N3">
-        <v>0.031481</v>
+        <v>0.330084</v>
       </c>
       <c r="O3">
         <v>1</v>
@@ -635,16 +635,16 @@
         <v>1</v>
       </c>
       <c r="Q3">
-        <v>1.195352077330111</v>
+        <v>12.533483532716</v>
       </c>
       <c r="R3">
-        <v>10.758168695971</v>
+        <v>112.801351794444</v>
       </c>
       <c r="S3">
-        <v>0.3717934677996853</v>
+        <v>0.3141149221428037</v>
       </c>
       <c r="T3">
-        <v>0.3717934677996854</v>
+        <v>0.3141149221428037</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -667,28 +667,28 @@
         <v>1</v>
       </c>
       <c r="G4">
-        <v>61.749762</v>
+        <v>61.800369</v>
       </c>
       <c r="H4">
-        <v>185.249286</v>
+        <v>185.401107</v>
       </c>
       <c r="I4">
-        <v>0.2015433473312409</v>
+        <v>0.1704162719632449</v>
       </c>
       <c r="J4">
-        <v>0.2015433473312409</v>
+        <v>0.1704162719632449</v>
       </c>
       <c r="K4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L4">
-        <v>0.3333333333333333</v>
+        <v>1</v>
       </c>
       <c r="M4">
-        <v>0.01049366666666667</v>
+        <v>0.110028</v>
       </c>
       <c r="N4">
-        <v>0.031481</v>
+        <v>0.330084</v>
       </c>
       <c r="O4">
         <v>1</v>
@@ -697,16 +697,16 @@
         <v>1</v>
       </c>
       <c r="Q4">
-        <v>0.647981419174</v>
+        <v>6.799771000332</v>
       </c>
       <c r="R4">
-        <v>5.831832772566</v>
+        <v>61.19793900298799</v>
       </c>
       <c r="S4">
-        <v>0.2015433473312409</v>
+        <v>0.1704162719632449</v>
       </c>
       <c r="T4">
-        <v>0.2015433473312409</v>
+        <v>0.1704162719632449</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -729,28 +729,28 @@
         <v>1</v>
       </c>
       <c r="G5">
-        <v>15.710799</v>
+        <v>10.80043633333334</v>
       </c>
       <c r="H5">
-        <v>47.132397</v>
+        <v>32.401309</v>
       </c>
       <c r="I5">
-        <v>0.05127804411146253</v>
+        <v>0.02978250980189204</v>
       </c>
       <c r="J5">
-        <v>0.05127804411146253</v>
+        <v>0.02978250980189203</v>
       </c>
       <c r="K5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L5">
-        <v>0.3333333333333333</v>
+        <v>1</v>
       </c>
       <c r="M5">
-        <v>0.01049366666666667</v>
+        <v>0.110028</v>
       </c>
       <c r="N5">
-        <v>0.031481</v>
+        <v>0.330084</v>
       </c>
       <c r="O5">
         <v>1</v>
@@ -759,16 +759,16 @@
         <v>1</v>
       </c>
       <c r="Q5">
-        <v>0.164863887773</v>
+        <v>1.188350408884</v>
       </c>
       <c r="R5">
-        <v>1.483774989957</v>
+        <v>10.695153679956</v>
       </c>
       <c r="S5">
-        <v>0.05127804411146253</v>
+        <v>0.02978250980189204</v>
       </c>
       <c r="T5">
-        <v>0.05127804411146253</v>
+        <v>0.02978250980189203</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -791,28 +791,28 @@
         <v>1</v>
       </c>
       <c r="G6">
-        <v>40.18492533333333</v>
+        <v>38.092607</v>
       </c>
       <c r="H6">
-        <v>120.554776</v>
+        <v>114.277821</v>
       </c>
       <c r="I6">
-        <v>0.1311584709255395</v>
+        <v>0.1050414452104809</v>
       </c>
       <c r="J6">
-        <v>0.1311584709255395</v>
+        <v>0.1050414452104809</v>
       </c>
       <c r="K6">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L6">
-        <v>0.3333333333333333</v>
+        <v>1</v>
       </c>
       <c r="M6">
-        <v>0.01049366666666667</v>
+        <v>0.110028</v>
       </c>
       <c r="N6">
-        <v>0.031481</v>
+        <v>0.330084</v>
       </c>
       <c r="O6">
         <v>1</v>
@@ -821,16 +821,16 @@
         <v>1</v>
       </c>
       <c r="Q6">
-        <v>0.4216872114728889</v>
+        <v>4.191253362996</v>
       </c>
       <c r="R6">
-        <v>3.795184903256001</v>
+        <v>37.721280266964</v>
       </c>
       <c r="S6">
-        <v>0.1311584709255395</v>
+        <v>0.1050414452104809</v>
       </c>
       <c r="T6">
-        <v>0.1311584709255395</v>
+        <v>0.1050414452104809</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -853,28 +853,28 @@
         <v>1</v>
       </c>
       <c r="G7">
-        <v>63.361323</v>
+        <v>92.03201033333333</v>
       </c>
       <c r="H7">
-        <v>190.083969</v>
+        <v>276.096031</v>
       </c>
       <c r="I7">
-        <v>0.2068032768896493</v>
+        <v>0.2537808811835653</v>
       </c>
       <c r="J7">
-        <v>0.2068032768896493</v>
+        <v>0.2537808811835653</v>
       </c>
       <c r="K7">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L7">
-        <v>0.3333333333333333</v>
+        <v>1</v>
       </c>
       <c r="M7">
-        <v>0.01049366666666667</v>
+        <v>0.110028</v>
       </c>
       <c r="N7">
-        <v>0.031481</v>
+        <v>0.330084</v>
       </c>
       <c r="O7">
         <v>1</v>
@@ -883,16 +883,16 @@
         <v>1</v>
       </c>
       <c r="Q7">
-        <v>0.664892603121</v>
+        <v>10.126098032956</v>
       </c>
       <c r="R7">
-        <v>5.984033428089</v>
+        <v>91.13488229660399</v>
       </c>
       <c r="S7">
-        <v>0.2068032768896493</v>
+        <v>0.2537808811835653</v>
       </c>
       <c r="T7">
-        <v>0.2068032768896493</v>
+        <v>0.2537808811835653</v>
       </c>
     </row>
   </sheetData>
